--- a/st00.docs/html&css정리.20180706.xlsx
+++ b/st00.docs/html&css정리.20180706.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="css" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="251">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -998,6 +998,10 @@
     <t>글자의 두께 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ellipsis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1006,7 +1010,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000\-000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,13 +1064,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="나눔고딕코딩"/>
@@ -1078,6 +1075,28 @@
       <name val="나눔고딕코딩"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1190,7 +1209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,15 +1291,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1311,7 +1321,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1323,11 +1333,26 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1350,29 +1375,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1910,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1919,7 +1953,7 @@
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="36" customWidth="1"/>
     <col min="5" max="5" width="54.5" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="42.625" customWidth="1"/>
@@ -1927,54 +1961,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="30"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>248</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1982,12 +2016,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>249</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1995,12 +2029,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="30" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2008,38 +2042,38 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="31" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="29" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="43" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="32" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="25" t="s">
@@ -2049,12 +2083,12 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="33" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="4"/>
@@ -2062,12 +2096,12 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="5"/>
@@ -2075,25 +2109,27 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="32" t="s">
         <v>109</v>
       </c>
       <c r="E14" s="26" t="s">
@@ -2103,12 +2139,12 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="30" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="5"/>
@@ -2116,12 +2152,12 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="25"/>
@@ -2129,12 +2165,12 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="30" t="s">
         <v>156</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2144,41 +2180,41 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="30" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="31" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2186,12 +2222,12 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="32" t="s">
         <v>245</v>
       </c>
       <c r="E22" s="26" t="s">
@@ -2199,43 +2235,43 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="5" t="s">
         <v>105</v>
       </c>
@@ -2244,7 +2280,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.3">
@@ -2257,7 +2293,7 @@
       <c r="C28" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="31" t="s">
         <v>149</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -2265,16 +2301,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="31" t="s">
         <v>157</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -2282,12 +2318,12 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="31" t="s">
         <v>160</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -2295,60 +2331,60 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="41" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="40" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="31" t="s">
         <v>138</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="41" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="40" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="31" t="s">
         <v>140</v>
       </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="31" t="s">
         <v>159</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -2356,42 +2392,42 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="41" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="40" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="40" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="42" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="31" t="s">
         <v>113</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -2399,12 +2435,12 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="31" t="s">
         <v>112</v>
       </c>
       <c r="E39" s="19" t="s">
@@ -2412,12 +2448,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="31" t="s">
         <v>111</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -2425,12 +2461,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="31" t="s">
         <v>110</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -2441,69 +2477,69 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="30"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="34"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="34"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="31" t="s">
         <v>116</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2511,12 +2547,12 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="31" t="s">
         <v>115</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -2524,23 +2560,23 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="31" t="s">
         <v>114</v>
       </c>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="31" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -2548,72 +2584,72 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="34"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="34"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="56"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="19" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="57"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="34"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="31" t="s">
         <v>135</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -2621,173 +2657,173 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="34"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="31" t="s">
         <v>123</v>
       </c>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="31" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="34"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="31"/>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="34"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="34"/>
+      <c r="D65" s="31"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="34"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="38"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="51" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="31" t="s">
         <v>234</v>
       </c>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="47"/>
-      <c r="B69" s="50"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="31" t="s">
         <v>233</v>
       </c>
       <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A70" s="47"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="41" t="s">
+      <c r="A70" s="49"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="43" t="s">
+      <c r="D70" s="39"/>
+      <c r="E70" s="40" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A71" s="47"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="41" t="s">
+      <c r="A71" s="49"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="D71" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="40" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="47"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="41" t="s">
+      <c r="A72" s="49"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="41"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="47"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="41" t="s">
+      <c r="A73" s="49"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="40" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="47"/>
-      <c r="B74" s="50"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="31" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -2795,36 +2831,36 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="47"/>
-      <c r="B75" s="50"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="31" t="s">
         <v>91</v>
       </c>
       <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A76" s="47"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="40" t="s">
+      <c r="A76" s="49"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E76" s="43" t="s">
+      <c r="E76" s="40" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="47"/>
-      <c r="B77" s="50"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="34" t="s">
+      <c r="D77" s="31" t="s">
         <v>228</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -2832,15 +2868,15 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="48"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="40" t="s">
+      <c r="A78" s="50"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D78" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="E78" s="41"/>
+      <c r="E78" s="38"/>
     </row>
     <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A79" s="16"/>
@@ -2848,7 +2884,7 @@
       <c r="C79" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="33" t="s">
         <v>226</v>
       </c>
       <c r="E79" s="18" t="s">
@@ -2857,11 +2893,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B10:B22"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
     <mergeCell ref="A68:A78"/>
     <mergeCell ref="B68:B78"/>
     <mergeCell ref="A1:D1"/>
@@ -2878,6 +2909,11 @@
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A29:A37"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="B10:B22"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2891,7 +2927,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2960,372 +2996,372 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="76.5" customWidth="1"/>
+    <col min="3" max="3" width="132" style="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="60" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="61" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="61" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="61" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="61" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="61" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="61" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="61" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="62" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
+      <c r="B12" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="60"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="C12" s="63"/>
+    </row>
+    <row r="13" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="61" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="61" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="61" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="61" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="61" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="28" t="s">
+    <row r="19" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="61" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="28" t="s">
+    <row r="21" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="61" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="28" t="s">
+    <row r="22" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="61" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+    <row r="23" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="64" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="28" t="s">
+    <row r="24" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="28" t="s">
+      <c r="C24" s="64"/>
+    </row>
+    <row r="25" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="29"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="28" t="s">
+      <c r="C25" s="64"/>
+    </row>
+    <row r="26" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="29"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="28" t="s">
+      <c r="C26" s="64"/>
+    </row>
+    <row r="27" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="28" t="s">
+      <c r="C27" s="64"/>
+    </row>
+    <row r="28" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="29"/>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="58" t="s">
+      <c r="C28" s="64"/>
+    </row>
+    <row r="29" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="29"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="28" t="s">
+      <c r="C29" s="64"/>
+    </row>
+    <row r="30" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="56"/>
+      <c r="B30" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="28" t="s">
+      <c r="C30" s="64"/>
+    </row>
+    <row r="31" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="28" t="s">
+      <c r="C31" s="64"/>
+    </row>
+    <row r="32" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="29"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="28" t="s">
+      <c r="C32" s="64"/>
+    </row>
+    <row r="33" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="56"/>
+      <c r="B33" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="29"/>
-    </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="28" t="s">
+      <c r="C33" s="64"/>
+    </row>
+    <row r="34" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="56"/>
+      <c r="B34" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="29"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="C34" s="64"/>
+    </row>
+    <row r="35" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="61" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+    <row r="36" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="61" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="28" t="s">
+    <row r="37" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="61" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="28" t="s">
+    <row r="38" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="56"/>
+      <c r="B38" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="61" t="s">
         <v>223</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>